--- a/xlsx_files_examples/employees_master_example.xlsx
+++ b/xlsx_files_examples/employees_master_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilianamarquez/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilianamarquez/Documents/vscode-projects/schedule-maker-api/xlsx_files_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9124301-72F0-9545-B76A-CD2EA6438DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277CECF-1C8A-C741-898D-896BE47010E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="2360" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{54F431C6-9ED7-134F-8496-B45EF9B7D1AE}"/>
+    <workbookView xWindow="7380" yWindow="2360" windowWidth="28040" windowHeight="17440" xr2:uid="{54F431C6-9ED7-134F-8496-B45EF9B7D1AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Employee</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>calendar_id for vacations events</t>
+  </si>
+  <si>
+    <t>Businessunit</t>
+  </si>
+  <si>
+    <t>branch_name</t>
   </si>
 </sst>
 </file>
@@ -119,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -129,10 +135,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0568789-BE8C-EA4A-AA20-F8DC39863157}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,16 +488,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -512,7 +516,9 @@
       <c r="C2" s="2">
         <v>25</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -521,7 +527,6 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
@@ -543,7 +548,6 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -745,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FC2502-269F-E14B-823A-78A6B634F611}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -755,7 +759,7 @@
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
